--- a/Plantilla_Fichas_Diferenciadores_y_Color_VALIDADO.xlsx
+++ b/Plantilla_Fichas_Diferenciadores_y_Color_VALIDADO.xlsx
@@ -1,34 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E526BA4-75BE-44B9-BD6B-37339242EAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Plantilla" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Beneficios</t>
+  </si>
+  <si>
+    <t>Información adicional</t>
+  </si>
+  <si>
+    <t>Color del Título</t>
+  </si>
+  <si>
+    <t>Diferenciador 1</t>
+  </si>
+  <si>
+    <t>Diferenciador 2</t>
+  </si>
+  <si>
+    <t>Diferenciador 3</t>
+  </si>
+  <si>
+    <t>Diferenciador 4</t>
+  </si>
+  <si>
+    <t>Imagen diferenciadora 1</t>
+  </si>
+  <si>
+    <t>Imagen diferenciadora 2</t>
+  </si>
+  <si>
+    <t>Imagen diferenciadora 3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +124,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,106 +428,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" customWidth="1"/>
+    <col min="11" max="12" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.08984375" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Tipo</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Marca</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Beneficios</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Información adicional</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>URL Imagen</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>URL Imagen 2</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>URL Imagen 3</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Color del Título</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Diferenciador 1</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Diferenciador 2</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Diferenciador 3</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Diferenciador 4</t>
-        </is>
-      </c>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation sqref="K2:K1000" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" type="list">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" sqref="K2:N1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Cruelty Free,Libre de Pesticidas,No Probado en Animales,No Toxico,Probado Lab,Sin Aceite,Sin Parabenos,Sin Sulfatos,Vegano"</formula1>
     </dataValidation>
-    <dataValidation sqref="L2:L1000" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" type="list">
-      <formula1>"Cruelty Free,Libre de Pesticidas,No Probado en Animales,No Toxico,Probado Lab,Sin Aceite,Sin Parabenos,Sin Sulfatos,Vegano"</formula1>
-    </dataValidation>
-    <dataValidation sqref="M2:M1000" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" type="list">
-      <formula1>"Cruelty Free,Libre de Pesticidas,No Probado en Animales,No Toxico,Probado Lab,Sin Aceite,Sin Parabenos,Sin Sulfatos,Vegano"</formula1>
-    </dataValidation>
-    <dataValidation sqref="N2:N1000" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Valor no válido" error="Por favor selecciona uno de los valores permitidos" promptTitle="Diferenciador" prompt="Selecciona un diferenciador" type="list">
-      <formula1>"Cruelty Free,Libre de Pesticidas,No Probado en Animales,No Toxico,Probado Lab,Sin Aceite,Sin Parabenos,Sin Sulfatos,Vegano"</formula1>
-    </dataValidation>
-    <dataValidation sqref="J2:J1000" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Valor no válido" error="Por favor selecciona Negro, Azul o Rosa" promptTitle="Color del Título" prompt="Selecciona un color válido" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor no válido" error="Por favor selecciona Negro, Azul o Rosa" promptTitle="Color del Título" prompt="Selecciona un color válido" sqref="J2:J1000" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Negro,Azul,Rosa"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Plantilla_Fichas_Diferenciadores_y_Color_VALIDADO.xlsx
+++ b/Plantilla_Fichas_Diferenciadores_y_Color_VALIDADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E526BA4-75BE-44B9-BD6B-37339242EAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7F4CB9-6AA5-4CB6-930C-DA7B9D4F3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,12 +104,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,9 +130,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,62 +439,65 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+    <col min="9" max="9" width="23.36328125" customWidth="1"/>
     <col min="10" max="10" width="15.81640625" customWidth="1"/>
-    <col min="11" max="12" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.08984375" customWidth="1"/>
+    <col min="11" max="11" width="17.08984375" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" customWidth="1"/>
     <col min="14" max="14" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Plantilla_Fichas_Diferenciadores_y_Color_VALIDADO.xlsx
+++ b/Plantilla_Fichas_Diferenciadores_y_Color_VALIDADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7F4CB9-6AA5-4CB6-930C-DA7B9D4F3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114C4DD0-89DA-43CC-815C-EAFFA4001A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,18 +56,6 @@
     <t>Color del Título</t>
   </si>
   <si>
-    <t>Diferenciador 1</t>
-  </si>
-  <si>
-    <t>Diferenciador 2</t>
-  </si>
-  <si>
-    <t>Diferenciador 3</t>
-  </si>
-  <si>
-    <t>Diferenciador 4</t>
-  </si>
-  <si>
     <t>Imagen diferenciadora 1</t>
   </si>
   <si>
@@ -75,6 +63,18 @@
   </si>
   <si>
     <t>Imagen diferenciadora 3</t>
+  </si>
+  <si>
+    <t>Icono 1</t>
+  </si>
+  <si>
+    <t>Icono 2</t>
+  </si>
+  <si>
+    <t>Icono 3</t>
+  </si>
+  <si>
+    <t>Icono 4</t>
   </si>
 </sst>
 </file>
@@ -130,10 +130,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,33 +478,45 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
